--- a/data/trans_orig/P04A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04A_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3633</v>
+        <v>2719</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00174433267470266</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01149395138807234</v>
+        <v>0.008601495896534037</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>2797</v>
+        <v>2775</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0008683410972059129</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004406129278814696</v>
+        <v>0.004370337449413039</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11018</v>
+        <v>12198</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01111850836422394</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03455604110026374</v>
+        <v>0.03825581960536895</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -825,19 +825,19 @@
         <v>1827</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5274</v>
+        <v>5016</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005779042948375664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001416068518810807</v>
+        <v>0.001397091515662295</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01668756299142488</v>
+        <v>0.01587003589787337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -846,19 +846,19 @@
         <v>5372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1824</v>
+        <v>1711</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>14453</v>
+        <v>13045</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008460484854757172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002873052677181962</v>
+        <v>0.002694454114854513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02276408138529849</v>
+        <v>0.02054575905710585</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>52812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40581</v>
+        <v>39325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69787</v>
+        <v>67948</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1656365636333022</v>
+        <v>0.1656365636333023</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1272745718674168</v>
+        <v>0.1233349259678435</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.218875434117811</v>
+        <v>0.2131051849890127</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -896,19 +896,19 @@
         <v>32606</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22209</v>
+        <v>22283</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>46446</v>
+        <v>45998</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1031623852778426</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07026948691509789</v>
+        <v>0.07050187764121689</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1469529648550958</v>
+        <v>0.1455349519875674</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -917,19 +917,19 @@
         <v>85418</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68011</v>
+        <v>68765</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>104288</v>
+        <v>106720</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1345364774129573</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1071195045604892</v>
+        <v>0.1083078685448548</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1642569063847172</v>
+        <v>0.1680871933721652</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>20865</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12943</v>
+        <v>13835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33178</v>
+        <v>34918</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06543982218479935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04059236867580114</v>
+        <v>0.04339008110784814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1040579654381334</v>
+        <v>0.1095155868860098</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -967,19 +967,19 @@
         <v>19811</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13453</v>
+        <v>13666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27816</v>
+        <v>28691</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06268232205511277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0425633892345184</v>
+        <v>0.04323815133807384</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08800694685570684</v>
+        <v>0.09077655023103644</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -988,19 +988,19 @@
         <v>40677</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29949</v>
+        <v>30068</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54093</v>
+        <v>54123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06406711918904447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04717076354079748</v>
+        <v>0.04735857576236983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08519810060106943</v>
+        <v>0.08524592315626482</v>
       </c>
     </row>
     <row r="8">
@@ -1017,19 +1017,19 @@
         <v>116178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97895</v>
+        <v>100007</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135287</v>
+        <v>134421</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.364371672993824</v>
+        <v>0.3643716729938241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3070304124813737</v>
+        <v>0.3136539914823593</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4243032429721461</v>
+        <v>0.4215858392789937</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>195</v>
@@ -1038,19 +1038,19 @@
         <v>119864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>106102</v>
+        <v>106475</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>134570</v>
+        <v>133662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3792435089759312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3357015775069724</v>
+        <v>0.336879987521895</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4257716859006558</v>
+        <v>0.4228996040422667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>308</v>
@@ -1059,19 +1059,19 @@
         <v>236042</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>214301</v>
+        <v>213848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>259606</v>
+        <v>261567</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3717749777426562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.337532424622573</v>
+        <v>0.3368187748974385</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4088882757222219</v>
+        <v>0.4119779421559127</v>
       </c>
     </row>
     <row r="9">
@@ -1088,19 +1088,19 @@
         <v>125444</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>108350</v>
+        <v>109497</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>143349</v>
+        <v>143601</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3934334328238505</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3398189052675597</v>
+        <v>0.3434171216815373</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4495883228981156</v>
+        <v>0.4503790250620109</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>270</v>
@@ -1109,19 +1109,19 @@
         <v>141402</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128471</v>
+        <v>127378</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>156849</v>
+        <v>154830</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4473884080680351</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.406476587069363</v>
+        <v>0.4030155996994759</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4962614061299152</v>
+        <v>0.4898739527745634</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>417</v>
@@ -1130,19 +1130,19 @@
         <v>266846</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>243113</v>
+        <v>243932</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>289447</v>
+        <v>292920</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4202925997033791</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3829124597940817</v>
+        <v>0.3842011617524083</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4558900317837604</v>
+        <v>0.4613593127400712</v>
       </c>
     </row>
     <row r="10">
@@ -1234,19 +1234,19 @@
         <v>10901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4688</v>
+        <v>3840</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25444</v>
+        <v>24076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02059530865724877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0088573456410075</v>
+        <v>0.007255588631776472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04806990047453741</v>
+        <v>0.04548546990085711</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1255,19 +1255,19 @@
         <v>6596</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2530</v>
+        <v>2639</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19204</v>
+        <v>17284</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0120981248462461</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004641128821914667</v>
+        <v>0.00484004270141101</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03522357374394766</v>
+        <v>0.03170155223111762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1276,19 +1276,19 @@
         <v>17497</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8413</v>
+        <v>8351</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31921</v>
+        <v>32804</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01628387692972005</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.007829363117213104</v>
+        <v>0.007772275383072396</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02970724750783219</v>
+        <v>0.03052949828525671</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>5790</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18007</v>
+        <v>20536</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01093945184844368</v>
+        <v>0.01093945184844367</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001763117550686416</v>
+        <v>0.001776939234818831</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03401911232137052</v>
+        <v>0.0387969087484304</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1326,19 +1326,19 @@
         <v>5844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2480</v>
+        <v>2307</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12016</v>
+        <v>11369</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01071938624994848</v>
+        <v>0.01071938624994847</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004548044515792148</v>
+        <v>0.004231632038524366</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02204044974519992</v>
+        <v>0.02085337493517684</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1347,19 +1347,19 @@
         <v>11635</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5878</v>
+        <v>5608</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26231</v>
+        <v>26944</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.01082779158257285</v>
+        <v>0.01082779158257286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005470661835711261</v>
+        <v>0.005219396680671351</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02441197454645996</v>
+        <v>0.02507549262567837</v>
       </c>
     </row>
     <row r="13">
@@ -1376,19 +1376,19 @@
         <v>69235</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51310</v>
+        <v>52110</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88858</v>
+        <v>92466</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1308030560674713</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09693726793942661</v>
+        <v>0.0984486820816748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1678758253881292</v>
+        <v>0.174692020158812</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -1397,19 +1397,19 @@
         <v>62255</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49367</v>
+        <v>49161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79878</v>
+        <v>77934</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1141871414644845</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09054809582102369</v>
+        <v>0.09017075979987411</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1465102428343972</v>
+        <v>0.1429455568811391</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1418,19 +1418,19 @@
         <v>131490</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108486</v>
+        <v>109016</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>159013</v>
+        <v>158646</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1223722179221951</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1009633597641769</v>
+        <v>0.1014565263193527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1479866990409142</v>
+        <v>0.1476447765780872</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>46655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31457</v>
+        <v>31398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67728</v>
+        <v>68406</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08814319518163651</v>
+        <v>0.08814319518163649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05943080348110046</v>
+        <v>0.05931943612921524</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1279553843671153</v>
+        <v>0.1292364119281242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1468,19 +1468,19 @@
         <v>47750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36247</v>
+        <v>36619</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62404</v>
+        <v>62585</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08758323624938856</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06648454600495317</v>
+        <v>0.06716618313607838</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1144605186336586</v>
+        <v>0.1147931911572181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -1489,19 +1489,19 @@
         <v>94405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76368</v>
+        <v>76126</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117504</v>
+        <v>117759</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0878590746117742</v>
+        <v>0.08785907461177421</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07107245875262712</v>
+        <v>0.07084711457181588</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1093563087065205</v>
+        <v>0.1095937391272722</v>
       </c>
     </row>
     <row r="15">
@@ -1518,19 +1518,19 @@
         <v>173635</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>146916</v>
+        <v>148555</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>203842</v>
+        <v>206064</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.328040898345355</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2775620159603236</v>
+        <v>0.2806580448861183</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3851095995003034</v>
+        <v>0.3893082909410929</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>204</v>
@@ -1539,19 +1539,19 @@
         <v>166702</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>146695</v>
+        <v>147570</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>186831</v>
+        <v>185071</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3057617349212962</v>
+        <v>0.3057617349212961</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2690666003755558</v>
+        <v>0.2706712659716011</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3426830539035262</v>
+        <v>0.3394538223873684</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>311</v>
@@ -1560,19 +1560,19 @@
         <v>340336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>308639</v>
+        <v>304853</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>376438</v>
+        <v>373652</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3167365539665848</v>
+        <v>0.3167365539665849</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2872369732231408</v>
+        <v>0.2837134854714392</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3503350611259808</v>
+        <v>0.3477422270919812</v>
       </c>
     </row>
     <row r="16">
@@ -1589,19 +1589,19 @@
         <v>223092</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>197419</v>
+        <v>197158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>250753</v>
+        <v>249777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4214780898998448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3729747664432053</v>
+        <v>0.3724826192860655</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4737381073248466</v>
+        <v>0.4718931263409485</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>368</v>
@@ -1610,19 +1610,19 @@
         <v>256054</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>235812</v>
+        <v>235938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>276168</v>
+        <v>277715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4696503762686361</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4325228549961371</v>
+        <v>0.4327543384572203</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5065440090931879</v>
+        <v>0.5093807544780089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>556</v>
@@ -1631,19 +1631,19 @@
         <v>479146</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>444752</v>
+        <v>448321</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>513942</v>
+        <v>517601</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4459204849871529</v>
+        <v>0.445920484987153</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4139114771175775</v>
+        <v>0.417233574568716</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4783036914643419</v>
+        <v>0.4817097601803854</v>
       </c>
     </row>
     <row r="17">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5795</v>
+        <v>5444</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004854600139084856</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01833801660418425</v>
+        <v>0.01722876092990817</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3336</v>
+        <v>3381</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.001905407455355479</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.009394691557544323</v>
+        <v>0.009521971008409192</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -1777,19 +1777,19 @@
         <v>2211</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5818</v>
+        <v>6207</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.003294039018693332</v>
+        <v>0.003294039018693331</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.000890703723430591</v>
+        <v>0.0009122687126735905</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.008669797553664356</v>
+        <v>0.009249243092376786</v>
       </c>
     </row>
     <row r="19">
@@ -1806,19 +1806,19 @@
         <v>5291</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2162</v>
+        <v>2094</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11610</v>
+        <v>11307</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01674369897212343</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006840985918906221</v>
+        <v>0.006627330698821142</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03674122034464073</v>
+        <v>0.03578135770539146</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1827,19 +1827,19 @@
         <v>11325</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6758</v>
+        <v>6827</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17831</v>
+        <v>18071</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03189188055944515</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01902995028772931</v>
+        <v>0.01922469857400521</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05021164972288987</v>
+        <v>0.05088702762834674</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1848,19 +1848,19 @@
         <v>16616</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10441</v>
+        <v>10948</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>25248</v>
+        <v>25267</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02475933774683776</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01555741316022543</v>
+        <v>0.01631316772540603</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03762174154183796</v>
+        <v>0.03764999232272699</v>
       </c>
     </row>
     <row r="20">
@@ -1877,19 +1877,19 @@
         <v>45511</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33370</v>
+        <v>33540</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58896</v>
+        <v>60359</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1440250545071674</v>
+        <v>0.1440250545071673</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1056049537296386</v>
+        <v>0.1061426850836059</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1863837623022011</v>
+        <v>0.1910124054107674</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1898,19 +1898,19 @@
         <v>51913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>41260</v>
+        <v>41444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64600</v>
+        <v>66107</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1461851876665411</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.116186680992899</v>
+        <v>0.1167042417337688</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1819125075970252</v>
+        <v>0.1861561474602821</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1919,19 +1919,19 @@
         <v>97424</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>82397</v>
+        <v>81218</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115133</v>
+        <v>117491</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1451680859008043</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1227776078022287</v>
+        <v>0.1210202265361314</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.17155614275612</v>
+        <v>0.1750696311091421</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>28883</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19583</v>
+        <v>20241</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40115</v>
+        <v>39083</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09140419572624359</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06197139164943412</v>
+        <v>0.06405486370488019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1269490380204909</v>
+        <v>0.1236825791623479</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -1969,19 +1969,19 @@
         <v>24323</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17432</v>
+        <v>17935</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33299</v>
+        <v>34372</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06849236904304458</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04908925057739466</v>
+        <v>0.05050499319631966</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09376933176024603</v>
+        <v>0.09679174651774813</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>71</v>
@@ -1990,19 +1990,19 @@
         <v>53206</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41836</v>
+        <v>41047</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66881</v>
+        <v>66922</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07928043517434387</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0623388421054347</v>
+        <v>0.06116279989874605</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09965781162427687</v>
+        <v>0.09971772366202138</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>79061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64448</v>
+        <v>64433</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96499</v>
+        <v>95014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2501972719061357</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2039543315936706</v>
+        <v>0.2039070757453902</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3053841463262748</v>
+        <v>0.3006843464561794</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>144</v>
@@ -2040,19 +2040,19 @@
         <v>108516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93065</v>
+        <v>94495</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>124497</v>
+        <v>123947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3055772195496501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2620675044611084</v>
+        <v>0.2660949436659169</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3505806592550963</v>
+        <v>0.3490324406001233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -2061,19 +2061,19 @@
         <v>187577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>164699</v>
+        <v>166001</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208855</v>
+        <v>210487</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2795014925555984</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2454122954694694</v>
+        <v>0.2473529653539411</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3112084840108269</v>
+        <v>0.3136392309460632</v>
       </c>
     </row>
     <row r="23">
@@ -2090,19 +2090,19 @@
         <v>155714</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>137340</v>
+        <v>137743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>172127</v>
+        <v>171757</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.492775178749245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4346309579099991</v>
+        <v>0.4359052794065453</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5447172106022272</v>
+        <v>0.5435459152035724</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -2111,19 +2111,19 @@
         <v>158364</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>141336</v>
+        <v>143602</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>172670</v>
+        <v>175300</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4459479357259637</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3979983960364155</v>
+        <v>0.4043790652317437</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4862331752762792</v>
+        <v>0.4936400226851564</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>466</v>
@@ -2132,19 +2132,19 @@
         <v>314078</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>292946</v>
+        <v>290490</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>338973</v>
+        <v>338101</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4679966096037222</v>
+        <v>0.4679966096037224</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4365090737135796</v>
+        <v>0.432848686394387</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5050925406642646</v>
+        <v>0.5037929782681301</v>
       </c>
     </row>
     <row r="24">
@@ -2236,19 +2236,19 @@
         <v>15262</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6495</v>
+        <v>6698</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31456</v>
+        <v>33770</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.04204251496406784</v>
+        <v>0.04204251496406785</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01789138371962066</v>
+        <v>0.01845074070278887</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08665363921890033</v>
+        <v>0.09303013377713752</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2257,19 +2257,19 @@
         <v>11055</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5818</v>
+        <v>5919</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18992</v>
+        <v>19227</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02623383491919136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01380711630508163</v>
+        <v>0.01404576379107026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04506861161911411</v>
+        <v>0.04562816618004146</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -2278,19 +2278,19 @@
         <v>26316</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15431</v>
+        <v>15283</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45347</v>
+        <v>43424</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03354978063735971</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01967184242323924</v>
+        <v>0.01948345184245659</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05781072167880644</v>
+        <v>0.05535966761333236</v>
       </c>
     </row>
     <row r="26">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3365</v>
+        <v>3102</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.001622938574453607</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.00927120794471438</v>
+        <v>0.008546125697506384</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2328,19 +2328,19 @@
         <v>4236</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>715</v>
+        <v>399</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13100</v>
+        <v>12335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01005148883488596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001696466811029816</v>
+        <v>0.0009459041056660192</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03108671510164904</v>
+        <v>0.0292729092375261</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2349,19 +2349,19 @@
         <v>4825</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>940</v>
+        <v>803</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14056</v>
+        <v>12429</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.006150921803790824</v>
+        <v>0.006150921803790826</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001198290507455989</v>
+        <v>0.0010241441635894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01791927607077135</v>
+        <v>0.01584479900281178</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>70665</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>51433</v>
+        <v>51014</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>95566</v>
+        <v>93019</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1946665397136159</v>
+        <v>0.194666539713616</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1416877704601252</v>
+        <v>0.1405339186197879</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2632648990131953</v>
+        <v>0.2562477445636005</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>63</v>
@@ -2399,19 +2399,19 @@
         <v>61268</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>46819</v>
+        <v>46621</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>80644</v>
+        <v>79001</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1453927648023592</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1111045117086365</v>
+        <v>0.110634193097558</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1913733572982877</v>
+        <v>0.1874745322317826</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>100</v>
@@ -2420,19 +2420,19 @@
         <v>131932</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>106545</v>
+        <v>107806</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>161477</v>
+        <v>164867</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1681956972139637</v>
+        <v>0.1681956972139638</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1358300919062946</v>
+        <v>0.1374379176310896</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2058609756373866</v>
+        <v>0.2101826380774019</v>
       </c>
     </row>
     <row r="28">
@@ -2449,19 +2449,19 @@
         <v>9258</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4067</v>
+        <v>4230</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19072</v>
+        <v>21376</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.02550280119067337</v>
+        <v>0.02550280119067338</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01120485710289752</v>
+        <v>0.01165200157667689</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05253878287711131</v>
+        <v>0.05888750123161332</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2470,19 +2470,19 @@
         <v>11124</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5880</v>
+        <v>6015</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19182</v>
+        <v>19586</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02639763969235324</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0139539623495939</v>
+        <v>0.01427389628472816</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04551928027727577</v>
+        <v>0.04647892310665627</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -2491,19 +2491,19 @@
         <v>20381</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12866</v>
+        <v>12258</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>32855</v>
+        <v>33633</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02598352606071334</v>
+        <v>0.02598352606071335</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01640300259635307</v>
+        <v>0.01562731446730152</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04188600095028884</v>
+        <v>0.04287778452616346</v>
       </c>
     </row>
     <row r="29">
@@ -2520,19 +2520,19 @@
         <v>87021</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>65351</v>
+        <v>64386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>110913</v>
+        <v>109291</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2397259368635344</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1800285077426538</v>
+        <v>0.1773712011491073</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3055420267808626</v>
+        <v>0.3010737897233715</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>111</v>
@@ -2541,19 +2541,19 @@
         <v>98670</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>82271</v>
+        <v>82380</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117083</v>
+        <v>117486</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2341513178847749</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1952341779793824</v>
+        <v>0.1954930023403628</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2778467669846416</v>
+        <v>0.2788038254811792</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>163</v>
@@ -2562,19 +2562,19 @@
         <v>185691</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>158360</v>
+        <v>158296</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>214975</v>
+        <v>213454</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2367311417367537</v>
+        <v>0.2367311417367538</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2018872521320599</v>
+        <v>0.2018056759509017</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2740640345194345</v>
+        <v>0.2721252017444886</v>
       </c>
     </row>
     <row r="30">
@@ -2591,19 +2591,19 @@
         <v>180209</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>155082</v>
+        <v>155872</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>204343</v>
+        <v>203169</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4964392686936548</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4272196573756779</v>
+        <v>0.4293950113656721</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5629212739793816</v>
+        <v>0.5596875942765772</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>394</v>
@@ -2612,19 +2612,19 @@
         <v>235042</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>215531</v>
+        <v>214617</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>255607</v>
+        <v>253193</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5577729538664353</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5114715449458078</v>
+        <v>0.5093022658393997</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6065747613355987</v>
+        <v>0.6008466992923207</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>575</v>
@@ -2633,19 +2633,19 @@
         <v>415252</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>380446</v>
+        <v>386449</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>447519</v>
+        <v>446812</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5293889325474185</v>
+        <v>0.5293889325474186</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.485017114697673</v>
+        <v>0.4926690604846523</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5705260210629628</v>
+        <v>0.5696242802995344</v>
       </c>
     </row>
     <row r="31">
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5633</v>
+        <v>5671</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.008524664816316786</v>
+        <v>0.008524664816316785</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02748886338215805</v>
+        <v>0.02767246229480479</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2758,19 +2758,19 @@
         <v>1330</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4219</v>
+        <v>3830</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.005820137608324201</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.001774365058579543</v>
+        <v>0.001766020850617121</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01846703596960369</v>
+        <v>0.01676133584121646</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5</v>
@@ -2779,19 +2779,19 @@
         <v>3077</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>991</v>
+        <v>1037</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7661</v>
+        <v>7897</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.007098867822278851</v>
+        <v>0.007098867822278852</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002287187096781044</v>
+        <v>0.002393206612437691</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01767562617289311</v>
+        <v>0.01822165603444473</v>
       </c>
     </row>
     <row r="33">
@@ -2808,19 +2808,19 @@
         <v>4315</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1418</v>
+        <v>1493</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10053</v>
+        <v>10411</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02105823238174074</v>
+        <v>0.02105823238174073</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006921463338925515</v>
+        <v>0.007285677217169668</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04905693294467856</v>
+        <v>0.05080499975494031</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>2641</v>
+        <v>2933</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.003627378375146374</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0115595603768518</v>
+        <v>0.01283783849366275</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>7</v>
@@ -2850,19 +2850,19 @@
         <v>5144</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2091</v>
+        <v>2131</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>10750</v>
+        <v>10926</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01186887789025341</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.004823450510640384</v>
+        <v>0.004916860377688744</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02480347836134163</v>
+        <v>0.02520888821524513</v>
       </c>
     </row>
     <row r="34">
@@ -2879,19 +2879,19 @@
         <v>16595</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10458</v>
+        <v>10171</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>27536</v>
+        <v>26533</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.08098392504563823</v>
+        <v>0.08098392504563821</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05103386524795929</v>
+        <v>0.04963306724887757</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1343735963254767</v>
+        <v>0.1294793275106325</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>27</v>
@@ -2900,19 +2900,19 @@
         <v>14533</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9706</v>
+        <v>9565</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20947</v>
+        <v>20604</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.06360352197642498</v>
+        <v>0.06360352197642499</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04247956989114943</v>
+        <v>0.0418607078770665</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09167567397539819</v>
+        <v>0.090175562829303</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>44</v>
@@ -2921,19 +2921,19 @@
         <v>31128</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>22465</v>
+        <v>22586</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>42263</v>
+        <v>42449</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07182116773337387</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05183440319475199</v>
+        <v>0.05211330856996998</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09751305661490288</v>
+        <v>0.09794214731371399</v>
       </c>
     </row>
     <row r="35">
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6681</v>
+        <v>8087</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.009048061788922859</v>
+        <v>0.009048061788922857</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03260317838389067</v>
+        <v>0.03946287962425257</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -2971,19 +2971,19 @@
         <v>2691</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>772</v>
+        <v>717</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7241</v>
+        <v>7620</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01177623747700683</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003377199006995343</v>
+        <v>0.00313801184886961</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0316904495318902</v>
+        <v>0.03335168814221756</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -2992,19 +2992,19 @@
         <v>4545</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1683</v>
+        <v>1707</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11099</v>
+        <v>10561</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0104863260015298</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003883392533640561</v>
+        <v>0.003938249040340733</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02560982001642518</v>
+        <v>0.02436817335581305</v>
       </c>
     </row>
     <row r="36">
@@ -3021,19 +3021,19 @@
         <v>14849</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8564</v>
+        <v>9324</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>22285</v>
+        <v>24078</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.07246245368654551</v>
+        <v>0.0724624536865455</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04179211140268591</v>
+        <v>0.04549962230456769</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1087495487542571</v>
+        <v>0.1175016581251311</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -3042,19 +3042,19 @@
         <v>8054</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>4745</v>
+        <v>4371</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13649</v>
+        <v>13328</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03525063431985269</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0207652972631356</v>
+        <v>0.01913126625112568</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0597382229808878</v>
+        <v>0.05833157451875446</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>31</v>
@@ -3063,19 +3063,19 @@
         <v>22903</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>16166</v>
+        <v>16072</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>33307</v>
+        <v>32274</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05284479184941648</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03729973923161235</v>
+        <v>0.03708301647458395</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07684865418059428</v>
+        <v>0.07446613747285878</v>
       </c>
     </row>
     <row r="37">
@@ -3092,19 +3092,19 @@
         <v>165558</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>153956</v>
+        <v>154034</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>174375</v>
+        <v>175596</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.8079226622808361</v>
+        <v>0.807922662280836</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7513032819937173</v>
+        <v>0.7516850227197696</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8509490803313849</v>
+        <v>0.8569102638376237</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>444</v>
@@ -3113,19 +3113,19 @@
         <v>201050</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>192974</v>
+        <v>191940</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>207330</v>
+        <v>207684</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8799220902432447</v>
+        <v>0.879922090243245</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8445772416605782</v>
+        <v>0.8400513705334323</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9074068708737353</v>
+        <v>0.9089558040950153</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>679</v>
@@ -3134,19 +3134,19 @@
         <v>366608</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>351242</v>
+        <v>351113</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>378039</v>
+        <v>378230</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8458799687031476</v>
+        <v>0.8458799687031475</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8104254676221971</v>
+        <v>0.8101281726494877</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8722565944912749</v>
+        <v>0.8726969821666336</v>
       </c>
     </row>
     <row r="38">
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5382</v>
+        <v>5347</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.003979887642238326</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0198796219627436</v>
+        <v>0.01975375862326996</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>5923</v>
+        <v>5941</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.002015845642961584</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.01108227491304298</v>
+        <v>0.01111643836700529</v>
       </c>
     </row>
     <row r="40">
@@ -3301,19 +3301,19 @@
         <v>15767</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>9387</v>
+        <v>9586</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>23873</v>
+        <v>23627</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05824338416366472</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03467432766258829</v>
+        <v>0.03541081290602646</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08818772091416385</v>
+        <v>0.08727750514366996</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>17</v>
@@ -3322,19 +3322,19 @@
         <v>11653</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>6930</v>
+        <v>7082</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>18693</v>
+        <v>18857</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.04418257315213989</v>
+        <v>0.04418257315213987</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02627450095681127</v>
+        <v>0.02685095589157237</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07087278243455851</v>
+        <v>0.07149576695746362</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>35</v>
@@ -3343,19 +3343,19 @@
         <v>27420</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>19183</v>
+        <v>19940</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>37517</v>
+        <v>37673</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.05130448893520641</v>
+        <v>0.05130448893520642</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03589257176218311</v>
+        <v>0.03730904604704976</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07019717589239144</v>
+        <v>0.0704877519351144</v>
       </c>
     </row>
     <row r="41">
@@ -3372,19 +3372,19 @@
         <v>27241</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>19401</v>
+        <v>19518</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>36798</v>
+        <v>38152</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1006300326247339</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07166740609787774</v>
+        <v>0.07210148770924034</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1359327175956103</v>
+        <v>0.1409356889247308</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>33</v>
@@ -3393,19 +3393,19 @@
         <v>24425</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17649</v>
+        <v>16906</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>35371</v>
+        <v>34142</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.09260760673242609</v>
+        <v>0.09260760673242605</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06691391597382167</v>
+        <v>0.06409692488577222</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.134108687531424</v>
+        <v>0.1294492542540363</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>66</v>
@@ -3414,19 +3414,19 @@
         <v>51667</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>40131</v>
+        <v>40649</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>66190</v>
+        <v>64981</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.09667103106364558</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.0750869737463937</v>
+        <v>0.07605723259863559</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1238451027239017</v>
+        <v>0.1215825890891043</v>
       </c>
     </row>
     <row r="42">
@@ -3443,19 +3443,19 @@
         <v>18972</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12492</v>
+        <v>12003</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29165</v>
+        <v>28714</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.07008158579531097</v>
+        <v>0.07008158579531094</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04614522465624062</v>
+        <v>0.04433946290001164</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1077355728757457</v>
+        <v>0.106071905318693</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>12</v>
@@ -3464,19 +3464,19 @@
         <v>8172</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>4736</v>
+        <v>4220</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>14177</v>
+        <v>14041</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.03098495534841465</v>
+        <v>0.03098495534841464</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01795684038327744</v>
+        <v>0.01600126499421783</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05375164223747009</v>
+        <v>0.05323590145097936</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>33</v>
@@ -3485,19 +3485,19 @@
         <v>27144</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>19177</v>
+        <v>19476</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>39113</v>
+        <v>38470</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.05078771844765886</v>
+        <v>0.05078771844765885</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.03588191091552018</v>
+        <v>0.03644078201435205</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.073183330552666</v>
+        <v>0.07197994859756067</v>
       </c>
     </row>
     <row r="43">
@@ -3514,19 +3514,19 @@
         <v>53965</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>42724</v>
+        <v>41355</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>68502</v>
+        <v>67110</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1993491198892589</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1578245947419249</v>
+        <v>0.1527679670710132</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2530471702568827</v>
+        <v>0.2479055787173042</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>64</v>
@@ -3535,19 +3535,19 @@
         <v>46912</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>36596</v>
+        <v>38044</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>58606</v>
+        <v>57391</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.1778672262670804</v>
+        <v>0.1778672262670803</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1387528415725604</v>
+        <v>0.1442410418934381</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2222032772235121</v>
+        <v>0.2175947746240315</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>124</v>
@@ -3556,19 +3556,19 @@
         <v>100878</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>84962</v>
+        <v>85210</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>118641</v>
+        <v>117782</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1887479810907211</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1589690438185791</v>
+        <v>0.1594325286468086</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2219833840550631</v>
+        <v>0.2203776375720482</v>
       </c>
     </row>
     <row r="44">
@@ -3585,19 +3585,19 @@
         <v>153685</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>139790</v>
+        <v>138828</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>168274</v>
+        <v>170788</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5677159898847932</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5163887286041607</v>
+        <v>0.512833802250242</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6216090056992398</v>
+        <v>0.6308978594044885</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>334</v>
@@ -3606,19 +3606,19 @@
         <v>172587</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>159181</v>
+        <v>158600</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>184618</v>
+        <v>184218</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.6543576384999391</v>
+        <v>0.6543576384999388</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6035297531026145</v>
+        <v>0.6013252015531722</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6999722681110574</v>
+        <v>0.6984574445674059</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>572</v>
@@ -3627,19 +3627,19 @@
         <v>326272</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>306869</v>
+        <v>306426</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>345752</v>
+        <v>347125</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.6104729348198064</v>
+        <v>0.6104729348198065</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5741690316410948</v>
+        <v>0.5733409075400057</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6469214012194403</v>
+        <v>0.6494908237411519</v>
       </c>
     </row>
     <row r="45">
@@ -3731,19 +3731,19 @@
         <v>7281</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2245</v>
+        <v>2313</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>21277</v>
+        <v>20112</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01025564259538012</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.00316163100729325</v>
+        <v>0.003258212752377418</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02996849398809926</v>
+        <v>0.02832846245126821</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>9</v>
@@ -3752,19 +3752,19 @@
         <v>7142</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>3670</v>
+        <v>3766</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>13694</v>
+        <v>13573</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.009381840428670889</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004820617163860663</v>
+        <v>0.004947606781770637</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.01798879643350671</v>
+        <v>0.01782903729259375</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>13</v>
@@ -3773,19 +3773,19 @@
         <v>14423</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>7766</v>
+        <v>7663</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>30034</v>
+        <v>28027</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.009803505121826143</v>
+        <v>0.009803505121826142</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.005278343932394028</v>
+        <v>0.005208495342577315</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02041378472263529</v>
+        <v>0.01905013429646136</v>
       </c>
     </row>
     <row r="47">
@@ -3802,19 +3802,19 @@
         <v>8773</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4216</v>
+        <v>4052</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>16536</v>
+        <v>16838</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01235736061591602</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.005938857779032511</v>
+        <v>0.005707416934805046</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02329117035643831</v>
+        <v>0.02371708595421565</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -3823,19 +3823,19 @@
         <v>7619</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3648</v>
+        <v>3857</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>13638</v>
+        <v>13833</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0100078763982699</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.004791925689004837</v>
+        <v>0.005066105203772222</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01791423215764051</v>
+        <v>0.0181712883009402</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>18</v>
@@ -3844,19 +3844,19 @@
         <v>16392</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9758</v>
+        <v>9802</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>25503</v>
+        <v>25816</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01114165081478096</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.006632603117648335</v>
+        <v>0.006662331620998349</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01733468732149836</v>
+        <v>0.01754694291669185</v>
       </c>
     </row>
     <row r="48">
@@ -3873,19 +3873,19 @@
         <v>110962</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>88918</v>
+        <v>87895</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>138086</v>
+        <v>135032</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.1562925486618984</v>
+        <v>0.1562925486618985</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1252428478732673</v>
+        <v>0.1238018952931402</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.194497255745113</v>
+        <v>0.1901949822687992</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>137</v>
@@ -3894,19 +3894,19 @@
         <v>123907</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>103758</v>
+        <v>105294</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>146451</v>
+        <v>145655</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1627631066520371</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1362955814696941</v>
+        <v>0.1383132920207086</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1923763699246435</v>
+        <v>0.1913313765004595</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>221</v>
@@ -3915,19 +3915,19 @@
         <v>234870</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>209438</v>
+        <v>204053</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>272963</v>
+        <v>267704</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1596406540496015</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1423546352191812</v>
+        <v>0.138694612031781</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.185532594855468</v>
+        <v>0.181958253588183</v>
       </c>
     </row>
     <row r="49">
@@ -3944,19 +3944,19 @@
         <v>19756</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>11134</v>
+        <v>11400</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>33718</v>
+        <v>33449</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02782687400768908</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01568217201080413</v>
+        <v>0.01605779323263766</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.0474930640440775</v>
+        <v>0.04711338635008467</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>18</v>
@@ -3965,19 +3965,19 @@
         <v>14111</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>8400</v>
+        <v>8490</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>21999</v>
+        <v>21651</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.01853577123469902</v>
+        <v>0.01853577123469901</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01103414760633994</v>
+        <v>0.01115298017064898</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.02889805805798592</v>
+        <v>0.02844102431038393</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>33</v>
@@ -3986,19 +3986,19 @@
         <v>33867</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>24041</v>
+        <v>22309</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>47885</v>
+        <v>46981</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.02301931470610179</v>
+        <v>0.02301931470610178</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01634057302191774</v>
+        <v>0.0151632639496999</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03254753568278227</v>
+        <v>0.031933161270178</v>
       </c>
     </row>
     <row r="50">
@@ -4015,19 +4015,19 @@
         <v>151662</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>127502</v>
+        <v>126678</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>179198</v>
+        <v>175581</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2136183076767955</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1795891898369253</v>
+        <v>0.1784287210316904</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2524039262676804</v>
+        <v>0.2473097815667568</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>209</v>
@@ -4036,19 +4036,19 @@
         <v>167617</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>146914</v>
+        <v>147149</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>188653</v>
+        <v>189689</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2201803989889111</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1929841395081781</v>
+        <v>0.193293053449499</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2478122639217042</v>
+        <v>0.249174063936492</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>333</v>
@@ -4057,19 +4057,19 @@
         <v>319279</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>284212</v>
+        <v>287605</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>352252</v>
+        <v>353866</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.2170137757817377</v>
+        <v>0.2170137757817376</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1931787177222699</v>
+        <v>0.1954848146836721</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2394252441698522</v>
+        <v>0.240522464247009</v>
       </c>
     </row>
     <row r="51">
@@ -4086,19 +4086,19 @@
         <v>411531</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>377778</v>
+        <v>377656</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>442720</v>
+        <v>444289</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5796492664423206</v>
+        <v>0.5796492664423207</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5321081497950322</v>
+        <v>0.5319354275450283</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.6235793757082921</v>
+        <v>0.6257904651605496</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>565</v>
@@ -4107,19 +4107,19 @@
         <v>440877</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>415940</v>
+        <v>413531</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>466013</v>
+        <v>467817</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.5791310062974119</v>
+        <v>0.579131006297412</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.5463746331706614</v>
+        <v>0.5432100961726364</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.6121499375252831</v>
+        <v>0.6145193592452923</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>924</v>
@@ -4128,19 +4128,19 @@
         <v>852408</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>809928</v>
+        <v>810139</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>892146</v>
+        <v>893325</v>
       </c>
       <c r="U51" s="6" t="n">
-        <v>0.579381099525952</v>
+        <v>0.5793810995259518</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.5505072059527724</v>
+        <v>0.5506511696662602</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.6063912327581822</v>
+        <v>0.6071925158386213</v>
       </c>
     </row>
     <row r="52">
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>7567</v>
+        <v>7492</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.001623131152661751</v>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.00950314410406751</v>
+        <v>0.009409886897714787</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>4593</v>
+        <v>4968</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.001620665981687112</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.005534671993792548</v>
+        <v>0.005987488033097736</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>3</v>
@@ -4274,19 +4274,19 @@
         <v>2637</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>8682</v>
+        <v>7843</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.001621873114996091</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.0003658143470655416</v>
+        <v>0.0003606593431150115</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.005339144605642467</v>
+        <v>0.004823631003062828</v>
       </c>
     </row>
     <row r="54">
@@ -4303,19 +4303,19 @@
         <v>19518</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>11328</v>
+        <v>12438</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>30305</v>
+        <v>31452</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.02451274655625996</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.01422699261844258</v>
+        <v>0.01562166847760985</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.03806063149576545</v>
+        <v>0.03950139474232075</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>14</v>
@@ -4324,19 +4324,19 @@
         <v>11883</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>6702</v>
+        <v>7024</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>20209</v>
+        <v>21236</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>0.01432060192078103</v>
+        <v>0.01432060192078104</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.008077155220077414</v>
+        <v>0.008464146906303621</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.02435405589404768</v>
+        <v>0.02559198049364096</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>31</v>
@@ -4345,19 +4345,19 @@
         <v>31401</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>21096</v>
+        <v>20272</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>45467</v>
+        <v>44474</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.0193114432887798</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01297418712443514</v>
+        <v>0.01246735139248367</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.02796210131451927</v>
+        <v>0.02735123600468147</v>
       </c>
     </row>
     <row r="55">
@@ -4374,19 +4374,19 @@
         <v>105390</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>85425</v>
+        <v>86444</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>129512</v>
+        <v>128623</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.1323617019565861</v>
+        <v>0.132361701956586</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1072870624010436</v>
+        <v>0.1085664688649085</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1626565489000415</v>
+        <v>0.1615400544788608</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>87</v>
@@ -4395,19 +4395,19 @@
         <v>85220</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>69064</v>
+        <v>69060</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>103629</v>
+        <v>103655</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.1026992501141158</v>
+        <v>0.1026992501141159</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.08322975801759268</v>
+        <v>0.08322480053431555</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1248842189983343</v>
+        <v>0.1249154979863264</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>172</v>
@@ -4416,19 +4416,19 @@
         <v>190610</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>164574</v>
+        <v>164576</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>221579</v>
+        <v>221771</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1172242197869697</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.101212120014975</v>
+        <v>0.1012135635989276</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1362695425002332</v>
+        <v>0.1363877258948055</v>
       </c>
     </row>
     <row r="56">
@@ -4445,19 +4445,19 @@
         <v>16722</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>10049</v>
+        <v>10047</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>25384</v>
+        <v>26085</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.02100111197652315</v>
+        <v>0.02100111197652314</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01262087783837127</v>
+        <v>0.01261874815357436</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0318802426774728</v>
+        <v>0.03276037152746059</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>15</v>
@@ -4466,19 +4466,19 @@
         <v>9913</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>5653</v>
+        <v>5154</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>15918</v>
+        <v>15876</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01194584626841897</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.006812731742189619</v>
+        <v>0.006210906909048497</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.01918274459032381</v>
+        <v>0.01913193559003042</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>34</v>
@@ -4487,19 +4487,19 @@
         <v>26634</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>18316</v>
+        <v>18274</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>36496</v>
+        <v>37788</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.01637998611931045</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01126410948260788</v>
+        <v>0.01123839038326767</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02244473159422687</v>
+        <v>0.02323950766747034</v>
       </c>
     </row>
     <row r="57">
@@ -4516,19 +4516,19 @@
         <v>163683</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>140766</v>
+        <v>140400</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>189110</v>
+        <v>192100</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2055726046394877</v>
+        <v>0.2055726046394878</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1767914847715076</v>
+        <v>0.1763316057269318</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2375070988467061</v>
+        <v>0.2412629266495073</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>225</v>
@@ -4537,19 +4537,19 @@
         <v>185075</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>162271</v>
+        <v>162573</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>205707</v>
+        <v>207186</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.2230350412610243</v>
+        <v>0.2230350412610244</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.1955529575097755</v>
+        <v>0.1959173537406116</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.2478984941218743</v>
+        <v>0.2496805479242228</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>364</v>
@@ -4558,19 +4558,19 @@
         <v>348758</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>318453</v>
+        <v>320815</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>384742</v>
+        <v>385647</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.2144841175650003</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.1958469378563054</v>
+        <v>0.1972993810223677</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.2366139913762828</v>
+        <v>0.2371703746328401</v>
       </c>
     </row>
     <row r="58">
@@ -4587,19 +4587,19 @@
         <v>489623</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>458791</v>
+        <v>461095</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>518402</v>
+        <v>521053</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.6149287037184814</v>
+        <v>0.6149287037184813</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.5762056103735643</v>
+        <v>0.5790987401924332</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.6510717181487455</v>
+        <v>0.6544011492270848</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>717</v>
@@ -4608,19 +4608,19 @@
         <v>536368</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>510187</v>
+        <v>509027</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>560484</v>
+        <v>562595</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>0.6463785944539726</v>
+        <v>0.6463785944539727</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.614827952647243</v>
+        <v>0.6134305827875948</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.6754417445232057</v>
+        <v>0.6779853398695717</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>1217</v>
@@ -4629,19 +4629,19 @@
         <v>1025991</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>982808</v>
+        <v>988080</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>1064265</v>
+        <v>1064623</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.6309783601249437</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.6044209270552248</v>
+        <v>0.6076634055199474</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.6545166884840733</v>
+        <v>0.6547367063117716</v>
       </c>
     </row>
     <row r="59">
@@ -4733,19 +4733,19 @@
         <v>39095</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>24885</v>
+        <v>25225</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>60301</v>
+        <v>60613</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.01114135118916345</v>
+        <v>0.01114135118916344</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.0070919013833028</v>
+        <v>0.007188666546250095</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01718468472578034</v>
+        <v>0.01727377707616353</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>36</v>
@@ -4754,19 +4754,19 @@
         <v>28695</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>19291</v>
+        <v>19614</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>39927</v>
+        <v>43249</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.007711576726432729</v>
+        <v>0.007711576726432726</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.005184307121190551</v>
+        <v>0.0052710664931506</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.0107299027287008</v>
+        <v>0.01162276458387457</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>59</v>
@@ -4775,19 +4775,19 @@
         <v>67790</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>50267</v>
+        <v>50167</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>92846</v>
+        <v>91795</v>
       </c>
       <c r="U60" s="6" t="n">
-        <v>0.009376152136307764</v>
+        <v>0.009376152136307768</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.006952551172476206</v>
+        <v>0.006938665329113938</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01284165507955954</v>
+        <v>0.01269637081812902</v>
       </c>
     </row>
     <row r="61">
@@ -4804,19 +4804,19 @@
         <v>63589</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>49560</v>
+        <v>48075</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>85026</v>
+        <v>82214</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.01812173056499867</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.01412378218812643</v>
+        <v>0.01370057905493988</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.02423100413167514</v>
+        <v>0.02342961424638692</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>72</v>
@@ -4825,19 +4825,19 @@
         <v>55216</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>43120</v>
+        <v>43553</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>68897</v>
+        <v>71438</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0.01483860713574093</v>
+        <v>0.01483860713574092</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0115881332167316</v>
+        <v>0.01170442330296462</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.01851518930146876</v>
+        <v>0.01919816825169813</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>132</v>
@@ -4846,19 +4846,19 @@
         <v>118804</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>99421</v>
+        <v>98375</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>143454</v>
+        <v>143492</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.01643200827255385</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.01375111531661126</v>
+        <v>0.01360645402956358</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.01984132970470993</v>
+        <v>0.01984663000468807</v>
       </c>
     </row>
     <row r="62">
@@ -4875,19 +4875,19 @@
         <v>498412</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>445818</v>
+        <v>452598</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>543121</v>
+        <v>545216</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.1420394210487126</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.1270510305368305</v>
+        <v>0.1289830764366077</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.1547807175627253</v>
+        <v>0.1553778749254128</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>518</v>
@@ -4896,19 +4896,19 @@
         <v>456126</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>418003</v>
+        <v>417781</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>500276</v>
+        <v>494991</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.1225787892336193</v>
+        <v>0.1225787892336192</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.1123336430726388</v>
+        <v>0.1122739756566129</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.1344436053884401</v>
+        <v>0.1330230979951428</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>919</v>
@@ -4917,19 +4917,19 @@
         <v>954538</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>889693</v>
+        <v>893379</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>1014616</v>
+        <v>1020173</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.1320236345236051</v>
+        <v>0.1320236345236052</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.1230547298212205</v>
+        <v>0.1235645998402775</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1403330340035073</v>
+        <v>0.1411017337240976</v>
       </c>
     </row>
     <row r="63">
@@ -4946,19 +4946,19 @@
         <v>162964</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>137669</v>
+        <v>135354</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>193175</v>
+        <v>192276</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.0464422191587328</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.03923352998595981</v>
+        <v>0.03857366713748817</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.05505183920865649</v>
+        <v>0.05479568240735455</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>193</v>
@@ -4967,19 +4967,19 @@
         <v>137895</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>118056</v>
+        <v>119696</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>159343</v>
+        <v>160805</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>0.03705772742393576</v>
+        <v>0.03705772742393575</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.03172618805710285</v>
+        <v>0.03216681755903347</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.04282173789540638</v>
+        <v>0.04321459662465296</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>340</v>
@@ -4988,19 +4988,19 @@
         <v>300859</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>268751</v>
+        <v>268323</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>335416</v>
+        <v>340180</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.04161231092371533</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.03717131835213131</v>
+        <v>0.03711219211948027</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.04639183690596975</v>
+        <v>0.04705083496610619</v>
       </c>
     </row>
     <row r="64">
@@ -5017,19 +5017,19 @@
         <v>840053</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>784852</v>
+        <v>784544</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>899600</v>
+        <v>898922</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.2394017556333037</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.2236703793605663</v>
+        <v>0.2235825022034374</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.2563715864043635</v>
+        <v>0.2561782936284886</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>1166</v>
@@ -5038,19 +5038,19 @@
         <v>901411</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>851788</v>
+        <v>842600</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>949009</v>
+        <v>943641</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.2422440147249433</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.2289084609135358</v>
+        <v>0.226439084160363</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.2550355060662379</v>
+        <v>0.2535927508190193</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>1855</v>
@@ -5059,19 +5059,19 @@
         <v>1741464</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>1673204</v>
+        <v>1669141</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>1820442</v>
+        <v>1814145</v>
       </c>
       <c r="U64" s="6" t="n">
-        <v>0.2408645786588556</v>
+        <v>0.2408645786588557</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.231423441966128</v>
+        <v>0.2308614391912852</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.2517880816525501</v>
+        <v>0.2509170905497317</v>
       </c>
     </row>
     <row r="65">
@@ -5088,19 +5088,19 @@
         <v>1904856</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1837840</v>
+        <v>1839282</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>1966545</v>
+        <v>1972775</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.5428535224050888</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.5237551067106259</v>
+        <v>0.524165928116832</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.5604337532945657</v>
+        <v>0.5622093952454681</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>3362</v>
@@ -5109,19 +5109,19 @@
         <v>2141743</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>2086346</v>
+        <v>2092937</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>2194845</v>
+        <v>2201946</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>0.5755692847553282</v>
+        <v>0.5755692847553281</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.5606817547384053</v>
+        <v>0.5624532424390309</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.5898398035595017</v>
+        <v>0.5917479780558383</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>5406</v>
@@ -5130,19 +5130,19 @@
         <v>4046600</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>3961516</v>
+        <v>3968918</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>4131221</v>
+        <v>4135107</v>
       </c>
       <c r="U65" s="6" t="n">
-        <v>0.559691315484962</v>
+        <v>0.5596913154849623</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.5479233243510084</v>
+        <v>0.5489471219617761</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.5713953840957768</v>
+        <v>0.5719329015621536</v>
       </c>
     </row>
     <row r="66">
